--- a/Ranked_Vocabs(SWJ - With Manual Input of 1 5-Star Model).xlsx
+++ b/Ranked_Vocabs(SWJ - With Manual Input of 1 5-Star Model).xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="227">
   <si>
     <t>Vocabulary Name</t>
   </si>
@@ -669,27 +669,6 @@
     <t>Panlex</t>
   </si>
   <si>
-    <t>prov</t>
-  </si>
-  <si>
-    <t>http://www.w3.org/ns/prov-links</t>
-  </si>
-  <si>
-    <t>http://www.w3.org/TR/prov-overview/</t>
-  </si>
-  <si>
-    <t>http://www.w3.org/TR/prov-o/</t>
-  </si>
-  <si>
-    <t>http://www.w3.org/TR/prov-aq/</t>
-  </si>
-  <si>
-    <t>http://www.w3.org/TR/prov-dictionary/</t>
-  </si>
-  <si>
-    <t>http://www.w3.org/TR/prov-links/</t>
-  </si>
-  <si>
     <t>qvoc</t>
   </si>
   <si>
@@ -712,348 +691,6 @@
   </si>
   <si>
     <t>http://www.modul.ac.at/ontology/TourismOntology.owl</t>
-  </si>
-  <si>
-    <t>urbanopoly</t>
-  </si>
-  <si>
-    <t>http://swa.cefriel.it/ontologies/urbanopoly</t>
-  </si>
-  <si>
-    <t>http://topbraid.org/spin/rdfsplus</t>
-  </si>
-  <si>
-    <t>http://spinrdf.org/spin</t>
-  </si>
-  <si>
-    <t>http://linkedgeodata.org/ontology/Aerodrome</t>
-  </si>
-  <si>
-    <t>http://linkedgeodata.org/ontology/ArchaeologicalSite</t>
-  </si>
-  <si>
-    <t>http://linkedgeodata.org/ontology/Artwork</t>
-  </si>
-  <si>
-    <t>http://linkedgeodata.org/ontology/Atm</t>
-  </si>
-  <si>
-    <t>http://linkedgeodata.org/ontology/Attraction</t>
-  </si>
-  <si>
-    <t>http://linkedgeodata.org/ontology/Bakery</t>
-  </si>
-  <si>
-    <t>http://linkedgeodata.org/ontology/Bank</t>
-  </si>
-  <si>
-    <t>http://linkedgeodata.org/ontology/Bar</t>
-  </si>
-  <si>
-    <t>http://linkedgeodata.org/ontology/Bench</t>
-  </si>
-  <si>
-    <t>http://linkedgeodata.org/ontology/BicycleParking</t>
-  </si>
-  <si>
-    <t>http://linkedgeodata.org/ontology/BicycleRental</t>
-  </si>
-  <si>
-    <t>http://linkedgeodata.org/ontology/BicycleShop</t>
-  </si>
-  <si>
-    <t>http://linkedgeodata.org/ontology/Books</t>
-  </si>
-  <si>
-    <t>http://linkedgeodata.org/ontology/Butcher</t>
-  </si>
-  <si>
-    <t>http://linkedgeodata.org/ontology/Cafe</t>
-  </si>
-  <si>
-    <t>http://linkedgeodata.org/ontology/CarRental</t>
-  </si>
-  <si>
-    <t>http://linkedgeodata.org/ontology/CarRepair</t>
-  </si>
-  <si>
-    <t>http://linkedgeodata.org/ontology/Car</t>
-  </si>
-  <si>
-    <t>http://linkedgeodata.org/ontology/Castle</t>
-  </si>
-  <si>
-    <t>http://linkedgeodata.org/ontology/Cemetery</t>
-  </si>
-  <si>
-    <t>http://linkedgeodata.org/ontology/Cinema</t>
-  </si>
-  <si>
-    <t>http://wiki.openstreetmap.org/wiki/Tag:tourism%3Dartwork</t>
-  </si>
-  <si>
-    <t>http://wiki.openstreetmap.org/wiki/Key:books</t>
-  </si>
-  <si>
-    <t>http://wiki.openstreetmap.org/wiki/Tag:shop%3Dbutcher</t>
-  </si>
-  <si>
-    <t>http://wiki.openstreetmap.org/wiki/Key:clothes</t>
-  </si>
-  <si>
-    <t>http://wiki.openstreetmap.org/wiki/Key:colour</t>
-  </si>
-  <si>
-    <t>http://wiki.openstreetmap.org/wiki/Tag:tourism%3Dinformation</t>
-  </si>
-  <si>
-    <t>http://wiki.openstreetmap.org/wiki/Museum</t>
-  </si>
-  <si>
-    <t>http://wiki.openstreetmap.org/wiki/Key:playground</t>
-  </si>
-  <si>
-    <t>http://wiki.openstreetmap.org/wiki/Recycling</t>
-  </si>
-  <si>
-    <t>http://wiki.openstreetmap.org/wiki/Religion</t>
-  </si>
-  <si>
-    <t>http://wiki.openstreetmap.org/wiki/Sport</t>
-  </si>
-  <si>
-    <t>http://taginfo.openstreetmap.org/keys/tower:type</t>
-  </si>
-  <si>
-    <t>http://linkedgeodata.org/ontology/Clothes</t>
-  </si>
-  <si>
-    <t>http://linkedgeodata.org/ontology/College</t>
-  </si>
-  <si>
-    <t>http://linkedgeodata.org/ontology/Convenience</t>
-  </si>
-  <si>
-    <t>http://linkedgeodata.org/ontology/Diy</t>
-  </si>
-  <si>
-    <t>http://linkedgeodata.org/ontology/DrinkingWater</t>
-  </si>
-  <si>
-    <t>http://linkedgeodata.org/ontology/Electronics</t>
-  </si>
-  <si>
-    <t>http://linkedgeodata.org/ontology/FastFood</t>
-  </si>
-  <si>
-    <t>http://linkedgeodata.org/ontology/FireStation</t>
-  </si>
-  <si>
-    <t>http://linkedgeodata.org/ontology/Florist</t>
-  </si>
-  <si>
-    <t>http://linkedgeodata.org/ontology/Fountain</t>
-  </si>
-  <si>
-    <t>http://linkedgeodata.org/ontology/Fuel</t>
-  </si>
-  <si>
-    <t>http://linkedgeodata.org/ontology/GolfCourse</t>
-  </si>
-  <si>
-    <t>http://linkedgeodata.org/ontology/GuestHouse</t>
-  </si>
-  <si>
-    <t>http://linkedgeodata.org/ontology/Hairdresser</t>
-  </si>
-  <si>
-    <t>http://linkedgeodata.org/ontology/Hospital</t>
-  </si>
-  <si>
-    <t>http://linkedgeodata.org/ontology/Hostel</t>
-  </si>
-  <si>
-    <t>http://linkedgeodata.org/ontology/Hotel</t>
-  </si>
-  <si>
-    <t>http://linkedgeodata.org/ontology/Information</t>
-  </si>
-  <si>
-    <t>http://linkedgeodata.org/ontology/Jewelry</t>
-  </si>
-  <si>
-    <t>http://linkedgeodata.org/ontology/Kindergarten</t>
-  </si>
-  <si>
-    <t>http://linkedgeodata.org/ontology/Kiosk</t>
-  </si>
-  <si>
-    <t>http://linkedgeodata.org/ontology/Laundry</t>
-  </si>
-  <si>
-    <t>http://linkedgeodata.org/ontology/Library</t>
-  </si>
-  <si>
-    <t>http://linkedgeodata.org/ontology/Mall</t>
-  </si>
-  <si>
-    <t>http://linkedgeodata.org/ontology/Memorial</t>
-  </si>
-  <si>
-    <t>http://linkedgeodata.org/ontology/Monument</t>
-  </si>
-  <si>
-    <t>http://linkedgeodata.org/ontology/Motel</t>
-  </si>
-  <si>
-    <t>http://linkedgeodata.org/ontology/Motorcycle</t>
-  </si>
-  <si>
-    <t>http://linkedgeodata.org/ontology/TourismMuseum</t>
-  </si>
-  <si>
-    <t>http://linkedgeodata.org/ontology/HistoricMuseum</t>
-  </si>
-  <si>
-    <t>http://linkedgeodata.org/ontology/Music</t>
-  </si>
-  <si>
-    <t>http://linkedgeodata.org/ontology/Park</t>
-  </si>
-  <si>
-    <t>http://linkedgeodata.org/ontology/Pharmacy</t>
-  </si>
-  <si>
-    <t>http://linkedgeodata.org/ontology/Pitch</t>
-  </si>
-  <si>
-    <t>http://linkedgeodata.org/ontology/PlaceOfWorship</t>
-  </si>
-  <si>
-    <t>http://linkedgeodata.org/ontology/Playground</t>
-  </si>
-  <si>
-    <t>http://linkedgeodata.org/ontology/Police</t>
-  </si>
-  <si>
-    <t>http://linkedgeodata.org/ontology/PostBox</t>
-  </si>
-  <si>
-    <t>http://linkedgeodata.org/ontology/PostOffice</t>
-  </si>
-  <si>
-    <t>http://linkedgeodata.org/ontology/Pub</t>
-  </si>
-  <si>
-    <t>http://linkedgeodata.org/ontology/BusStop</t>
-  </si>
-  <si>
-    <t>http://linkedgeodata.org/ontology/TramStop</t>
-  </si>
-  <si>
-    <t>http://linkedgeodata.org/ontology/BusStation</t>
-  </si>
-  <si>
-    <t>http://linkedgeodata.org/ontology/TramStation</t>
-  </si>
-  <si>
-    <t>http://linkedgeodata.org/ontology/Recycling</t>
-  </si>
-  <si>
-    <t>http://linkedgeodata.org/ontology/Restaurant</t>
-  </si>
-  <si>
-    <t>http://linkedgeodata.org/ontology/HistoricRuins</t>
-  </si>
-  <si>
-    <t>http://linkedgeodata.org/ontology/School</t>
-  </si>
-  <si>
-    <t>http://linkedgeodata.org/ontology/SportsCentre</t>
-  </si>
-  <si>
-    <t>http://linkedgeodata.org/ontology/Stadium</t>
-  </si>
-  <si>
-    <t>http://linkedgeodata.org/ontology/SubwayEntrance</t>
-  </si>
-  <si>
-    <t>http://linkedgeodata.org/ontology/TrainStation</t>
-  </si>
-  <si>
-    <t>http://linkedgeodata.org/ontology/Supermarket</t>
-  </si>
-  <si>
-    <t>http://linkedgeodata.org/ontology/SwimmingPool</t>
-  </si>
-  <si>
-    <t>http://linkedgeodata.org/ontology/Taxi</t>
-  </si>
-  <si>
-    <t>http://linkedgeodata.org/ontology/Theatre</t>
-  </si>
-  <si>
-    <t>http://linkedgeodata.org/ontology/Toilets</t>
-  </si>
-  <si>
-    <t>http://linkedgeodata.org/ontology/CommunicationsTower</t>
-  </si>
-  <si>
-    <t>http://linkedgeodata.org/ontology/AerialwayTower</t>
-  </si>
-  <si>
-    <t>http://linkedgeodata.org/ontology/PowerTower</t>
-  </si>
-  <si>
-    <t>http://linkedgeodata.org/ontology/HistoricTower</t>
-  </si>
-  <si>
-    <t>http://linkedgeodata.org/ontology/BuildingTower</t>
-  </si>
-  <si>
-    <t>http://linkedgeodata.org/ontology/ManMadeTower</t>
-  </si>
-  <si>
-    <t>http://linkedgeodata.org/ontology/LookoutTower</t>
-  </si>
-  <si>
-    <t>http://linkedgeodata.org/ontology/AerowayTower</t>
-  </si>
-  <si>
-    <t>http://linkedgeodata.org/ontology/ObservationTower</t>
-  </si>
-  <si>
-    <t>http://linkedgeodata.org/ontology/Townhall</t>
-  </si>
-  <si>
-    <t>http://linkedgeodata.org/ontology/Toys</t>
-  </si>
-  <si>
-    <t>http://linkedgeodata.org/ontology/University</t>
-  </si>
-  <si>
-    <t>http://linkedgeodata.org/ontology/VendingMachine</t>
-  </si>
-  <si>
-    <t>http://linkedgeodata.org/ontology/Viewpoint</t>
-  </si>
-  <si>
-    <t>http://linkedgeodata.org/ontology/TourismZoo</t>
-  </si>
-  <si>
-    <t>http://wiki.openstreetmap.org/wiki/Tag:shop%3Dbicycle</t>
-  </si>
-  <si>
-    <t>http://wiki.openstreetmap.org/wiki/Tag:shop%3Dcar</t>
-  </si>
-  <si>
-    <t>http://wiki.openstreetmap.org/wiki/Key:fuel</t>
-  </si>
-  <si>
-    <t>http://wiki.openstreetmap.org/wiki/Tag:shop%3Dmotorcycle</t>
-  </si>
-  <si>
-    <t>http://www.netzwolf.info/en/cartography/osm/time_domain/</t>
   </si>
   <si>
     <t>Links From Vocabulary</t>
@@ -1404,7 +1041,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F411"/>
+  <dimension ref="A1:F294"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3188,7 +2825,7 @@
         <v>218</v>
       </c>
       <c r="C284" t="s">
-        <v>194</v>
+        <v>8</v>
       </c>
       <c r="D284" t="s">
         <v>219</v>
@@ -3201,6 +2838,9 @@
       </c>
     </row>
     <row r="285" spans="1:6">
+      <c r="C285" t="s">
+        <v>194</v>
+      </c>
       <c r="D285" t="s">
         <v>220</v>
       </c>
@@ -3211,667 +2851,43 @@
       </c>
     </row>
     <row r="287" spans="1:6">
+      <c r="C287" t="s">
+        <v>20</v>
+      </c>
       <c r="D287" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6"/>
+    <row r="289" spans="1:6">
+      <c r="A289" s="2" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="288" spans="1:6">
-      <c r="D288" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="289" spans="1:6"/>
+      <c r="E289" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F289" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
     <row r="290" spans="1:6">
       <c r="A290" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B290" t="s">
         <v>224</v>
       </c>
-      <c r="B290" t="s">
-        <v>225</v>
-      </c>
-      <c r="C290" t="s">
-        <v>8</v>
-      </c>
-      <c r="D290" t="s">
-        <v>226</v>
-      </c>
       <c r="E290" s="2" t="b">
         <v>1</v>
       </c>
       <c r="F290" s="2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="291" spans="1:6">
-      <c r="C291" t="s">
-        <v>194</v>
-      </c>
-      <c r="D291" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="292" spans="1:6">
-      <c r="D292" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="293" spans="1:6">
-      <c r="C293" t="s">
-        <v>20</v>
-      </c>
-      <c r="D293" t="s">
-        <v>226</v>
-      </c>
-    </row>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6"/>
+    <row r="292" spans="1:6"/>
+    <row r="293" spans="1:6"/>
     <row r="294" spans="1:6"/>
-    <row r="295" spans="1:6">
-      <c r="A295" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="E295" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F295" s="2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="296" spans="1:6">
-      <c r="A296" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="B296" t="s">
-        <v>231</v>
-      </c>
-      <c r="E296" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F296" s="2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="297" spans="1:6">
-      <c r="A297" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="B297" t="s">
-        <v>233</v>
-      </c>
-      <c r="C297" t="s">
-        <v>16</v>
-      </c>
-      <c r="D297" t="s">
-        <v>234</v>
-      </c>
-      <c r="E297" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F297" s="2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="298" spans="1:6">
-      <c r="D298" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="299" spans="1:6">
-      <c r="C299" t="s">
-        <v>194</v>
-      </c>
-      <c r="D299" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="300" spans="1:6">
-      <c r="D300" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="301" spans="1:6">
-      <c r="D301" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="302" spans="1:6">
-      <c r="D302" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="303" spans="1:6">
-      <c r="D303" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="304" spans="1:6">
-      <c r="D304" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="305" spans="1:6">
-      <c r="D305" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="306" spans="1:6">
-      <c r="D306" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="307" spans="1:6">
-      <c r="D307" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="308" spans="1:6">
-      <c r="D308" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="309" spans="1:6">
-      <c r="D309" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="310" spans="1:6">
-      <c r="D310" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="311" spans="1:6">
-      <c r="D311" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="312" spans="1:6">
-      <c r="D312" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="313" spans="1:6">
-      <c r="D313" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="314" spans="1:6">
-      <c r="D314" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="315" spans="1:6">
-      <c r="D315" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="316" spans="1:6">
-      <c r="D316" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="317" spans="1:6">
-      <c r="D317" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="318" spans="1:6">
-      <c r="D318" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="319" spans="1:6">
-      <c r="D319" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="320" spans="1:6">
-      <c r="D320" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="321" spans="1:6">
-      <c r="D321" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="322" spans="1:6">
-      <c r="D322" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="323" spans="1:6">
-      <c r="D323" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="324" spans="1:6">
-      <c r="D324" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="325" spans="1:6">
-      <c r="D325" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="326" spans="1:6">
-      <c r="D326" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="327" spans="1:6">
-      <c r="D327" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="328" spans="1:6">
-      <c r="D328" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="329" spans="1:6">
-      <c r="D329" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="330" spans="1:6">
-      <c r="D330" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="331" spans="1:6">
-      <c r="D331" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="332" spans="1:6">
-      <c r="D332" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="333" spans="1:6">
-      <c r="D333" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="334" spans="1:6">
-      <c r="D334" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="335" spans="1:6">
-      <c r="D335" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="336" spans="1:6">
-      <c r="D336" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="337" spans="1:6">
-      <c r="D337" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="338" spans="1:6">
-      <c r="D338" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="339" spans="1:6">
-      <c r="D339" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="340" spans="1:6">
-      <c r="D340" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="341" spans="1:6">
-      <c r="D341" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="342" spans="1:6">
-      <c r="D342" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="343" spans="1:6">
-      <c r="D343" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="344" spans="1:6">
-      <c r="D344" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="345" spans="1:6">
-      <c r="D345" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="346" spans="1:6">
-      <c r="D346" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="347" spans="1:6">
-      <c r="D347" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="348" spans="1:6">
-      <c r="D348" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="349" spans="1:6">
-      <c r="D349" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="350" spans="1:6">
-      <c r="D350" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="351" spans="1:6">
-      <c r="D351" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="352" spans="1:6">
-      <c r="D352" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="353" spans="1:6">
-      <c r="D353" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="354" spans="1:6">
-      <c r="D354" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="355" spans="1:6">
-      <c r="D355" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="356" spans="1:6">
-      <c r="D356" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="357" spans="1:6">
-      <c r="D357" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="358" spans="1:6">
-      <c r="D358" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="359" spans="1:6">
-      <c r="D359" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="360" spans="1:6">
-      <c r="D360" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="361" spans="1:6">
-      <c r="D361" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="362" spans="1:6">
-      <c r="D362" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="363" spans="1:6">
-      <c r="D363" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="364" spans="1:6">
-      <c r="D364" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="365" spans="1:6">
-      <c r="D365" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="366" spans="1:6">
-      <c r="D366" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="367" spans="1:6">
-      <c r="D367" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="368" spans="1:6">
-      <c r="D368" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="369" spans="1:6">
-      <c r="D369" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="370" spans="1:6">
-      <c r="D370" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="371" spans="1:6">
-      <c r="D371" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="372" spans="1:6">
-      <c r="D372" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="373" spans="1:6">
-      <c r="D373" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="374" spans="1:6">
-      <c r="D374" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="375" spans="1:6">
-      <c r="D375" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="376" spans="1:6">
-      <c r="D376" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="377" spans="1:6">
-      <c r="D377" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="378" spans="1:6">
-      <c r="D378" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="379" spans="1:6">
-      <c r="D379" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="380" spans="1:6">
-      <c r="D380" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="381" spans="1:6">
-      <c r="D381" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="382" spans="1:6">
-      <c r="D382" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="383" spans="1:6">
-      <c r="D383" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="384" spans="1:6">
-      <c r="D384" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="385" spans="1:6">
-      <c r="D385" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="386" spans="1:6">
-      <c r="D386" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="387" spans="1:6">
-      <c r="D387" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="388" spans="1:6">
-      <c r="D388" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="389" spans="1:6">
-      <c r="D389" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="390" spans="1:6">
-      <c r="D390" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="391" spans="1:6">
-      <c r="D391" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="392" spans="1:6">
-      <c r="D392" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="393" spans="1:6">
-      <c r="D393" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="394" spans="1:6">
-      <c r="D394" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="395" spans="1:6">
-      <c r="D395" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="396" spans="1:6">
-      <c r="D396" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="397" spans="1:6">
-      <c r="D397" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="398" spans="1:6">
-      <c r="D398" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="399" spans="1:6">
-      <c r="D399" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="400" spans="1:6">
-      <c r="D400" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="401" spans="1:6">
-      <c r="D401" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="402" spans="1:6">
-      <c r="D402" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="403" spans="1:6">
-      <c r="D403" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="404" spans="1:6">
-      <c r="D404" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="405" spans="1:6">
-      <c r="D405" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="406" spans="1:6">
-      <c r="D406" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="407" spans="1:6">
-      <c r="D407" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="408" spans="1:6">
-      <c r="C408" t="s">
-        <v>160</v>
-      </c>
-      <c r="D408" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="409" spans="1:6"/>
-    <row r="410" spans="1:6"/>
-    <row r="411" spans="1:6"/>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -3883,7 +2899,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F312"/>
+  <dimension ref="A1:F195"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3913,7 +2929,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>346</v>
+        <v>225</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
@@ -3933,7 +2949,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>347</v>
+        <v>226</v>
       </c>
       <c r="F2" s="2" t="n">
         <v>5</v>
@@ -3983,7 +2999,7 @@
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>347</v>
+        <v>226</v>
       </c>
       <c r="F9" s="2" t="n">
         <v>5</v>
@@ -4018,7 +3034,7 @@
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>347</v>
+        <v>226</v>
       </c>
       <c r="F13" s="2" t="n">
         <v>5</v>
@@ -4543,7 +3559,7 @@
         <v>1</v>
       </c>
       <c r="E115" t="s">
-        <v>347</v>
+        <v>226</v>
       </c>
       <c r="F115" s="2" t="n">
         <v>5</v>
@@ -4603,7 +3619,7 @@
         <v>1</v>
       </c>
       <c r="E124" t="s">
-        <v>347</v>
+        <v>226</v>
       </c>
       <c r="F124" s="2" t="n">
         <v>5</v>
@@ -4713,7 +3729,7 @@
         <v>1</v>
       </c>
       <c r="E140" t="s">
-        <v>347</v>
+        <v>226</v>
       </c>
       <c r="F140" s="2" t="n">
         <v>5</v>
@@ -4818,7 +3834,7 @@
         <v>1</v>
       </c>
       <c r="E158" t="s">
-        <v>347</v>
+        <v>226</v>
       </c>
       <c r="F158" s="2" t="n">
         <v>5</v>
@@ -4838,7 +3854,7 @@
         <v>1</v>
       </c>
       <c r="E159" t="s">
-        <v>347</v>
+        <v>226</v>
       </c>
       <c r="F159" s="2" t="n">
         <v>5</v>
@@ -5013,748 +4029,139 @@
       </c>
     </row>
     <row r="184" spans="1:6">
-      <c r="C184" t="s">
-        <v>222</v>
+      <c r="A184" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B184" t="s">
+        <v>32</v>
+      </c>
+      <c r="D184" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F184" s="2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="185" spans="1:6">
-      <c r="C185" t="s">
-        <v>223</v>
+      <c r="A185" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B185" t="s">
+        <v>191</v>
+      </c>
+      <c r="D185" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F185" s="2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="186" spans="1:6">
       <c r="A186" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B186" t="s">
         <v>224</v>
       </c>
-      <c r="B186" t="s">
-        <v>225</v>
-      </c>
-      <c r="C186" t="s">
-        <v>226</v>
-      </c>
       <c r="D186" s="2" t="b">
         <v>1</v>
       </c>
       <c r="F186" s="2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="187" spans="1:6">
-      <c r="C187" t="s">
-        <v>227</v>
+      <c r="A187" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D187" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F187" s="2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:6">
-      <c r="C188" t="s">
-        <v>228</v>
+      <c r="A188" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D188" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F188" s="2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:6">
       <c r="A189" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="B189" t="s">
-        <v>233</v>
-      </c>
-      <c r="C189" t="s">
-        <v>234</v>
+        <v>25</v>
       </c>
       <c r="D189" s="2" t="b">
         <v>1</v>
       </c>
       <c r="F189" s="2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:6">
-      <c r="C190" t="s">
-        <v>235</v>
+      <c r="A190" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D190" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F190" s="2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:6">
-      <c r="C191" t="s">
-        <v>236</v>
+      <c r="A191" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D191" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F191" s="2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:6">
-      <c r="C192" t="s">
-        <v>237</v>
+      <c r="A192" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="D192" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F192" s="2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:6">
-      <c r="C193" t="s">
-        <v>238</v>
+      <c r="A193" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="D193" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F193" s="2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:6">
-      <c r="C194" t="s">
-        <v>239</v>
+      <c r="A194" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="D194" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F194" s="2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:6">
-      <c r="C195" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="196" spans="1:6">
-      <c r="C196" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="197" spans="1:6">
-      <c r="C197" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6">
-      <c r="C198" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6">
-      <c r="C199" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6">
-      <c r="C200" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6">
-      <c r="C201" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="202" spans="1:6">
-      <c r="C202" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="203" spans="1:6">
-      <c r="C203" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="204" spans="1:6">
-      <c r="C204" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="205" spans="1:6">
-      <c r="C205" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="206" spans="1:6">
-      <c r="C206" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="207" spans="1:6">
-      <c r="C207" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="208" spans="1:6">
-      <c r="C208" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="209" spans="1:6">
-      <c r="C209" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="210" spans="1:6">
-      <c r="C210" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="211" spans="1:6">
-      <c r="C211" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="212" spans="1:6">
-      <c r="C212" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="213" spans="1:6">
-      <c r="C213" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="214" spans="1:6">
-      <c r="C214" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="215" spans="1:6">
-      <c r="C215" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="216" spans="1:6">
-      <c r="C216" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="217" spans="1:6">
-      <c r="C217" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="218" spans="1:6">
-      <c r="C218" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="219" spans="1:6">
-      <c r="C219" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="220" spans="1:6">
-      <c r="C220" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="221" spans="1:6">
-      <c r="C221" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="222" spans="1:6">
-      <c r="C222" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="223" spans="1:6">
-      <c r="C223" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="224" spans="1:6">
-      <c r="C224" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="225" spans="1:6">
-      <c r="C225" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="226" spans="1:6">
-      <c r="C226" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="227" spans="1:6">
-      <c r="C227" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="228" spans="1:6">
-      <c r="C228" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="229" spans="1:6">
-      <c r="C229" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="230" spans="1:6">
-      <c r="C230" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="231" spans="1:6">
-      <c r="C231" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="232" spans="1:6">
-      <c r="C232" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="233" spans="1:6">
-      <c r="C233" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="234" spans="1:6">
-      <c r="C234" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="235" spans="1:6">
-      <c r="C235" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="236" spans="1:6">
-      <c r="C236" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="237" spans="1:6">
-      <c r="C237" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="238" spans="1:6">
-      <c r="C238" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="239" spans="1:6">
-      <c r="C239" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="240" spans="1:6">
-      <c r="C240" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="241" spans="1:6">
-      <c r="C241" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="242" spans="1:6">
-      <c r="C242" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="243" spans="1:6">
-      <c r="C243" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="244" spans="1:6">
-      <c r="C244" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="245" spans="1:6">
-      <c r="C245" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="246" spans="1:6">
-      <c r="C246" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="247" spans="1:6">
-      <c r="C247" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="248" spans="1:6">
-      <c r="C248" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="249" spans="1:6">
-      <c r="C249" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="250" spans="1:6">
-      <c r="C250" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="251" spans="1:6">
-      <c r="C251" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="252" spans="1:6">
-      <c r="C252" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="253" spans="1:6">
-      <c r="C253" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="254" spans="1:6">
-      <c r="C254" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="255" spans="1:6">
-      <c r="C255" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="256" spans="1:6">
-      <c r="C256" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="257" spans="1:6">
-      <c r="C257" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="258" spans="1:6">
-      <c r="C258" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="259" spans="1:6">
-      <c r="C259" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="260" spans="1:6">
-      <c r="C260" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="261" spans="1:6">
-      <c r="C261" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="262" spans="1:6">
-      <c r="C262" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="263" spans="1:6">
-      <c r="C263" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="264" spans="1:6">
-      <c r="C264" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="265" spans="1:6">
-      <c r="C265" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="266" spans="1:6">
-      <c r="C266" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="267" spans="1:6">
-      <c r="C267" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="268" spans="1:6">
-      <c r="C268" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="269" spans="1:6">
-      <c r="C269" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="270" spans="1:6">
-      <c r="C270" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="271" spans="1:6">
-      <c r="C271" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="272" spans="1:6">
-      <c r="C272" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="273" spans="1:6">
-      <c r="C273" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="274" spans="1:6">
-      <c r="C274" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="275" spans="1:6">
-      <c r="C275" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="276" spans="1:6">
-      <c r="C276" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="277" spans="1:6">
-      <c r="C277" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="278" spans="1:6">
-      <c r="C278" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="279" spans="1:6">
-      <c r="C279" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="280" spans="1:6">
-      <c r="C280" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="281" spans="1:6">
-      <c r="C281" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="282" spans="1:6">
-      <c r="C282" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="283" spans="1:6">
-      <c r="C283" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="284" spans="1:6">
-      <c r="C284" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="285" spans="1:6">
-      <c r="C285" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="286" spans="1:6">
-      <c r="C286" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="287" spans="1:6">
-      <c r="C287" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="288" spans="1:6">
-      <c r="C288" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="289" spans="1:6">
-      <c r="C289" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="290" spans="1:6">
-      <c r="C290" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="291" spans="1:6">
-      <c r="C291" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="292" spans="1:6">
-      <c r="C292" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="293" spans="1:6">
-      <c r="C293" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="294" spans="1:6">
-      <c r="C294" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="295" spans="1:6">
-      <c r="C295" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="296" spans="1:6">
-      <c r="C296" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="297" spans="1:6">
-      <c r="C297" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="298" spans="1:6">
-      <c r="C298" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="299" spans="1:6">
-      <c r="C299" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="300" spans="1:6">
-      <c r="C300" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="301" spans="1:6">
-      <c r="A301" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B301" t="s">
-        <v>32</v>
-      </c>
-      <c r="D301" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F301" s="2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="302" spans="1:6">
-      <c r="A302" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="B302" t="s">
-        <v>191</v>
-      </c>
-      <c r="D302" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F302" s="2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="303" spans="1:6">
-      <c r="A303" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="B303" t="s">
-        <v>231</v>
-      </c>
-      <c r="D303" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F303" s="2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="304" spans="1:6">
-      <c r="A304" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D304" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F304" s="2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="305" spans="1:6">
-      <c r="A305" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D305" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F305" s="2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="306" spans="1:6">
-      <c r="A306" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D306" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F306" s="2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="307" spans="1:6">
-      <c r="A307" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="D307" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F307" s="2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="308" spans="1:6">
-      <c r="A308" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="D308" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F308" s="2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="309" spans="1:6">
-      <c r="A309" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="D309" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F309" s="2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="310" spans="1:6">
-      <c r="A310" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="D310" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F310" s="2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="311" spans="1:6">
-      <c r="A311" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="D311" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F311" s="2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="312" spans="1:6">
-      <c r="A312" s="2" t="n"/>
-      <c r="D312" s="2" t="n"/>
-      <c r="F312" s="2" t="n"/>
+      <c r="A195" s="2" t="n"/>
+      <c r="D195" s="2" t="n"/>
+      <c r="F195" s="2" t="n"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
